--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
   </si>
   <si>
     <t xml:space="preserve">breathe_</t>
@@ -219,7 +222,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -227,7 +230,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -235,7 +238,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -243,7 +246,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -251,7 +254,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -259,7 +262,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -267,7 +270,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -275,7 +278,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -283,7 +286,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -291,7 +294,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -299,7 +302,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -315,7 +318,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -331,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -339,7 +342,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -347,7 +350,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -355,7 +358,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -363,7 +366,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -371,7 +374,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -379,7 +382,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -387,7 +390,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -395,7 +398,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -411,7 +414,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -419,7 +422,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -427,7 +430,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -443,7 +446,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -451,7 +454,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -459,7 +462,15 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,109 +26,112 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.57</t>
@@ -262,7 +265,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -326,7 +329,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -334,7 +337,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -358,7 +361,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -366,7 +369,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -374,7 +377,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -382,7 +385,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -390,7 +393,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -398,7 +401,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -470,7 +473,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
   </si>
   <si>
     <t xml:space="preserve">SpMeteor</t>
@@ -225,7 +228,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -233,7 +236,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -241,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -249,7 +252,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -257,7 +260,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -265,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -273,7 +276,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -281,7 +284,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -289,7 +292,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -297,7 +300,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -305,7 +308,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -313,7 +316,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -321,7 +324,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -329,7 +332,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -345,7 +348,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -353,7 +356,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -361,7 +364,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -369,7 +372,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -377,7 +380,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -385,7 +388,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -393,7 +396,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -401,7 +404,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -409,7 +412,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -425,7 +428,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -433,7 +436,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
@@ -441,7 +444,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -457,7 +460,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -465,7 +468,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -473,7 +476,15 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,115 +26,118 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.57</t>
@@ -324,7 +327,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -340,7 +343,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -348,7 +351,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -372,7 +375,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -380,7 +383,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -388,7 +391,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -396,7 +399,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -404,7 +407,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -412,7 +415,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -484,7 +487,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonSpear</t>
   </si>
   <si>
     <t xml:space="preserve">SpMeteor</t>
@@ -231,7 +234,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -239,7 +242,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -247,7 +250,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -255,7 +258,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -263,7 +266,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -271,7 +274,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -279,7 +282,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -287,7 +290,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -295,7 +298,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -303,7 +306,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -311,7 +314,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -319,7 +322,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -327,7 +330,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -335,7 +338,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -343,7 +346,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -359,7 +362,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -367,7 +370,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -375,7 +378,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -383,7 +386,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -391,7 +394,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -399,7 +402,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -407,7 +410,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -415,7 +418,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -423,7 +426,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -439,7 +442,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -447,7 +450,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -455,7 +458,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -471,7 +474,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -479,7 +482,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -487,7 +490,15 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,121 +26,127 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonArrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonSpear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonSpear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.57</t>
@@ -234,7 +240,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -242,7 +248,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -250,7 +256,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -258,7 +264,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -266,7 +272,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -274,7 +280,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -282,7 +288,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -290,7 +296,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -298,7 +304,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -306,7 +312,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -314,7 +320,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -322,7 +328,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -330,7 +336,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +352,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -354,7 +360,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -362,7 +368,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -370,7 +376,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -378,7 +384,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -386,7 +392,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -394,7 +400,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -402,7 +408,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -410,7 +416,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -418,7 +424,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -426,7 +432,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -434,7 +440,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -450,7 +456,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -458,7 +464,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -466,7 +472,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -482,7 +488,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -490,7 +496,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -498,7 +504,15 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,124 +26,127 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonArrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonSpear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.209 Patch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonArrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonSpear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.200</t>
@@ -344,7 +347,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -352,7 +355,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -368,7 +371,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -376,7 +379,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -400,7 +403,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -408,7 +411,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -416,7 +419,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -424,7 +427,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -432,7 +435,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -440,7 +443,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -512,7 +515,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flare_</t>
   </si>
   <si>
     <t xml:space="preserve">bolt_</t>
@@ -243,7 +246,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +254,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -259,7 +262,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -267,7 +270,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -275,7 +278,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -283,7 +286,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +294,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -299,7 +302,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -307,7 +310,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -315,7 +318,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -323,7 +326,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -331,7 +334,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -339,7 +342,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -363,7 +366,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -371,7 +374,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -387,7 +390,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -395,7 +398,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -403,7 +406,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -411,7 +414,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -419,7 +422,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -427,7 +430,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -435,7 +438,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -443,7 +446,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -451,7 +454,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -467,7 +470,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -475,7 +478,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -483,7 +486,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -499,7 +502,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -507,7 +510,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -515,7 +518,15 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,124 +26,127 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpCatsEye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActLulwyTrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainBlood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrainMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathe_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flare_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miasma_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sword_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonArrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMoonSpear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpMeteor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEarthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpShutterHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpSilence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealHeavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealCritical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealEris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealOdina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHealJure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActManaAbsorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActJureHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonGodPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSummonUndeadSister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpTeleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpEvac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpCatsEye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActLulwyTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainBlood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrainMana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breathe_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ball_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flare_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miasma_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sword_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonArrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMoonSpear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpMeteor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEarthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpShutterHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpSilence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealLight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealHeavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealCritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealEris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealOdina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHealJure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActManaAbsorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActJureHeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonGodPet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActSummonUndeadSister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpTeleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpEvac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.120</t>
@@ -310,7 +313,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +353,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -358,7 +361,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -366,7 +369,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -382,7 +385,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -390,7 +393,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -414,7 +417,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -422,7 +425,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -430,7 +433,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -438,7 +441,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -446,7 +449,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -454,7 +457,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -526,7 +529,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
